--- a/database/order_data.xlsx
+++ b/database/order_data.xlsx
@@ -7525,6 +7525,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7730,8 +7734,8 @@
   </sheetPr>
   <dimension ref="A1:I2476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
-      <selection activeCell="B1101" sqref="B1101"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/database/order_data.xlsx
+++ b/database/order_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/ericjs_yu_mail_utoronto_ca/Documents/Desktop/AI_Kata_backend/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A0103AC7DCC273F304B651D5D02528E350D23F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48149E10-919D-4AFE-9B37-050FD594EF8B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A0103AC7DCC273F304B651D5D02528E350D23F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2AF390-0180-4FD0-B680-E175840E5AEE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7734,13 +7734,14 @@
   </sheetPr>
   <dimension ref="A1:I2476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/database/order_data.xlsx
+++ b/database/order_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/ericjs_yu_mail_utoronto_ca/Documents/Desktop/AI_Kata_backend/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_A0103AC7DCC273F304B651D5D02528E350D23F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2AF390-0180-4FD0-B680-E175840E5AEE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_A0103AC7DCC273F304B651D5D02528E350D23F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CFDB54-B649-44A2-BC0A-0367D2B8DE7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7735,7 +7735,7 @@
   <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -55304,7 +55304,7 @@
         <v>45592.517103767248</v>
       </c>
     </row>
-    <row r="1641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1641" s="1">
         <v>44767</v>
       </c>

--- a/database/order_data.xlsx
+++ b/database/order_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_A0103AC7DCC273F304B651D5D02528E350D23F5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1BCA1E-B2E0-4040-A590-FDE0B8EF426D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of synthetic-orders-data" sheetId="1" r:id="rId1"/>
@@ -7528,6 +7528,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7734,7 +7738,7 @@
   <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2479" sqref="E2479"/>
+      <selection activeCell="D2478" sqref="D2478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -79590,6 +79594,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{89db4e91-bad5-4fd0-9ca4-c06485916e3a}" enabled="1" method="Standard" siteId="{f66fae02-5d36-495b-bfe0-78a6ff9f8e6e}" contentBits="0" removed="0"/>
+  <clbl:label id="{89db4e91-bad5-4fd0-9ca4-c06485916e3a}" enabled="1" method="Standard" siteId="{f66fae02-5d36-495b-bfe0-78a6ff9f8e6e}" removed="0"/>
 </clbl:labelList>
 </file>